--- a/10.会員機能追加改修(var1.01)/03.設計/BL仕様書/【MMA】ホテル情報取得処理_BL仕様書_Ver.1.00.xlsx
+++ b/10.会員機能追加改修(var1.01)/03.設計/BL仕様書/【MMA】ホテル情報取得処理_BL仕様書_Ver.1.00.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1083" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF617A1-1425-4850-8427-CA5D94C2CA6B}"/>
+  <xr:revisionPtr revIDLastSave="1098" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CFF00F6-74E3-4E81-B9FA-6A8BA2EA5C97}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -77,7 +77,19 @@
     <t>「ユーザ名取得処理」を開始（別紙参照）</t>
   </si>
   <si>
-    <t>1-1-2.上記以外の場合</t>
+    <t>1-1-2.page == 'logout' の場合</t>
+  </si>
+  <si>
+    <t>userInfoテーブルのlastLoginDateを１日前に更新</t>
+  </si>
+  <si>
+    <t>SQL：sql-011</t>
+  </si>
+  <si>
+    <t>1-1-2-1.ホーム画面に遷移</t>
+  </si>
+  <si>
+    <t>1-1-3.上記以外の場合</t>
   </si>
   <si>
     <t>ホーム画面に遷移</t>
@@ -463,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303EAC3C-F0FA-4BDE-B2B9-2E7C4F25D54E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -517,9 +529,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0CC328-67D9-4EFC-964C-1F60298D9D0A}">
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -574,14 +586,41 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9"/>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="9"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
